--- a/src/main/resources/template/excel/export/StockReimburseGoods.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburseGoods.xlsx
@@ -143,18 +143,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(J3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(L3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>报损查询</t>
   </si>
   <si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>报损金额</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3:L3:L3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:EG101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:137" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
@@ -987,15 +987,15 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
